--- a/Food_Survey_SandeepW.xlsx
+++ b/Food_Survey_SandeepW.xlsx
@@ -18,14 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="299">
   <si>
     <t>Timestamp</t>
   </si>
@@ -919,13 +918,16 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>KPIs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1058,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1408,7 +1417,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1417,6 +1426,10 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1755,17 +1768,12 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400">
+          <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -1777,17 +1785,12 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400">
+          <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1796,17 +1799,12 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400">
+          <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1815,62 +1813,191 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400">
+          <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-3.8216560509554215E-2"/>
+              <c:y val="-5.3333305336847561E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.9723991507430998E-2"/>
+              <c:y val="-5.9999968503953512E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1893,17 +2020,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1918,17 +2040,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1943,17 +2060,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1961,6 +2073,109 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9723991507430998E-2"/>
+                  <c:y val="-5.9999968503953512E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1968-4022-815A-6F7E1CBD3B1D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8216560509554215E-2"/>
+                  <c:y val="-5.3333305336847561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1968-4022-815A-6F7E1CBD3B1D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$6:$A$9</c:f>
@@ -2004,14 +2219,16 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2061,7 +2278,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2282,21 +2503,102 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="25400">
+          <a:ln w="19050">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -2339,106 +2641,10 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
     </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2461,17 +2667,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2486,17 +2687,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2511,17 +2707,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2529,6 +2720,63 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$F$6:$F$9</c:f>
@@ -2572,14 +2820,16 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2629,7 +2879,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2941,7 +3195,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2978,9 +3231,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3055,14 +3306,32 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FD7B-4DEC-B7FA-0D3193045941}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7B-4DEC-B7FA-0D3193045941}"/>
                 </c:ext>
@@ -3456,7 +3725,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3620,7 +3893,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3657,9 +3929,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4031,7 +4301,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4169,7 +4443,6 @@
         <c:idx val="7"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4178,9 +4451,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4188,7 +4459,6 @@
         <c:idx val="8"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4197,9 +4467,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4207,7 +4475,6 @@
         <c:idx val="9"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4216,9 +4483,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4226,7 +4491,6 @@
         <c:idx val="10"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4235,9 +4499,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4245,7 +4507,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4285,8 +4547,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4330,6 +4591,28 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4557,7 +4840,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4746,7 +5033,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4755,9 +5041,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4785,6 +5069,252 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.2013739023362822E-2"/>
+              <c:y val="-1.7506432385606971E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.9491850555717573E-2"/>
+              <c:y val="0.10313796982273768"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4946,7 +5476,107 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2013739023362822E-2"/>
+                  <c:y val="-1.7506432385606971E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8FA8-4698-90A6-22DBD79AC948}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9491850555717573E-2"/>
+                  <c:y val="0.10313796982273768"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8FA8-4698-90A6-22DBD79AC948}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5002,7 +5632,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5062,7 +5692,11 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8474,14 +9108,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8506,15 +9140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8539,14 +9173,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8571,14 +9205,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8602,15 +9236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8635,14 +9269,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8663,11 +9297,624 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="2924175"/>
+          <a:ext cx="3009900" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>More</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t> than 85% survey is conducted by Middle class</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="2943225"/>
+          <a:ext cx="3105150" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>92.22% population is from Urban and Semi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t> Urban area, who participated in the survey</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="2962275"/>
+          <a:ext cx="3105150" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>According to survey, food was easily available during covid 19 pandemic.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="3105150" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>People from rural area</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t> preffered veg food.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t>People from Urban and Semi urban area preffered both Veg and Non Veg Food</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="6105525"/>
+          <a:ext cx="3105150" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>People from rural area</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t> preffered veg food.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+            <a:t>People from Urban and Semi urban area preffered both Veg and Non Veg Food</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="6105525"/>
+          <a:ext cx="3105150" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>The junk food consumtion has been reduced during pandamic. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>Only 8% people are disagree on this.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1000" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Pie 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="781050"/>
+          <a:ext cx="1476375" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="pie">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Favourite Food was Vagetable</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Pie 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="847725"/>
+          <a:ext cx="1476375" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="pie">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Food was easily available in the market</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Pie 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="838200"/>
+          <a:ext cx="1476375" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="pie">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> consumtion of junk food reduced</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="44565.50441076389" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="257">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="44583.7254880787" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="257">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -10786,7 +12033,212 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Economical Status" fld="0" subtotal="count" baseField="0" baseItem="1" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="V5:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Availability" fld="4" subtotal="count" baseField="4" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="Q5:R10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -10931,18 +12383,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="J5:M10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="2"/>
@@ -11076,8 +12521,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="F5:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -11179,8 +12624,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="Z5:AA11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -11252,7 +12697,7 @@
       </extLst>
     </dataField>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="7">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11271,207 +12716,62 @@
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Economical Status" fld="0" subtotal="count" baseField="0" baseItem="1" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfParentRow"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="9" series="1">
+    <chartFormat chart="2" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="10">
+    <chartFormat chart="2" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="11">
+    <chartFormat chart="2" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="12">
+    <chartFormat chart="2" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="V5:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Availability" fld="4" subtotal="count" baseField="4" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfParentRow"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
+    <chartFormat chart="2" format="19">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -17725,8 +19025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18059,19 +19359,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>